--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105471.1872573704</v>
+        <v>103032.7141576242</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0284381244513</v>
       </c>
       <c r="D2" t="n">
-        <v>46.02055568702304</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>203.4926237682701</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="E4" t="n">
-        <v>58.54986581946015</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.1429131767404</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.42881909501524</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>31.85546561252599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.1329927668882</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271575</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>71.05418784569045</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>79.54581243241749</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>114.4402163209794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>29.959001240238</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983372</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>77.39507264402822</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881239</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701385</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101218</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>118.4437570891984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>38.61213096653508</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>94.80184639740138</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983366035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>215.3025979624034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881319</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.82891891787433</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>207.3024276001685</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>182.4443919360885</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>275.3300239197279</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>80.88538973875028</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>146.5235739004497</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.601998493311</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.639481552899</v>
+        <v>611.640720400382</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>611.640720400382</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>611.640720400382</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>611.640720400382</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557432</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.479525463516</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>272.5433425356091</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>272.5433425356091</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335303</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372858</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.1279902937557</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>769.4825048886535</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3311.03125686673</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3311.03125686673</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3057.500780140566</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3057.500780140566</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2704.732124870452</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2331.266366609372</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>661.9578014444415</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>493.0216185165347</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>342.9049791041989</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415546</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.012987209659</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.595817172699</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>843.6062662746813</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>843.6062662746813</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.266366609373</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.351820332246</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>825.351820332246</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199102</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>527.3220873375171</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1046.144399475776</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>1046.144399475776</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.351820332246</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,13 +5060,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
         <v>590.9096564684977</v>
@@ -5130,16 +5130,16 @@
         <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998276</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1899.284239455935</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.599751250048</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213087</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.69050941353</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856231</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732872</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908941</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908941</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1568.745695178748</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1279.328525141787</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1051.33897424377</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.33897424377</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133958</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133958</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580249</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580249</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.960931088799</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.35946611174</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.599751250051</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.18258121309</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315073</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.4004511715426</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -5999,28 +5999,28 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913858</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417938</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972545</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311876</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133958</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310025</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359445</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614274</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614274</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,58 +6206,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075814</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273913</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273913</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921465</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186988</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1540.888753373306</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536386</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133958</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310025</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330921</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273915</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684982</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649658</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.6725264685185</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406115</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282757</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458824</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442289</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987584</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7035232280573</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438164</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438164</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998423</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580262</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603203</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947401</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1728.890000432079</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1439.472830395119</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793926</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5558870561823</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282754</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>959.9969310299522</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.204351886422</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192275</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075781</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167374</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.528408326419</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516147</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868374</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.3929232910551</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.4567403631482</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.3401009508125</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>484.4270073684194</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199803</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162842</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.833967264825</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.041388121295</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654457</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891998</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446605</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655626</v>
       </c>
       <c r="D2" t="n">
-        <v>245.6195595403183</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22708,19 +22708,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788669</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856741</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7894017452159</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>4.860112312599085e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.6938862346296</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4141550351096</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.44497470122646</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>71.22040037418773</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>191.8807364711629</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>44.8352157236595</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>43.26526345294863</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>10.85445046951628</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>64.53565828418097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>139.9994244361413</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001900.672409753</v>
+        <v>1001900.672409751</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1082278.067854516</v>
+        <v>1082278.067854517</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1082278.067854516</v>
+        <v>1082278.067854517</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1082278.067854516</v>
+        <v>1082278.067854517</v>
       </c>
     </row>
     <row r="10">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406867</v>
+        <v>317255.8761406862</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="G2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="H2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="I2" t="n">
-        <v>343037.3048682524</v>
-      </c>
       <c r="J2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682529</v>
@@ -26344,16 +26344,16 @@
         <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.066132532898337e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.954454091901425e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052936</v>
+        <v>50238.9591705288</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184255</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184255</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.80811184242</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184262</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184255</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
+        <v>13606.80811184272</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="O4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26494,13 +26494,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169661.769318829</v>
+        <v>-1169848.162707367</v>
       </c>
       <c r="C6" t="n">
-        <v>148214.9687477333</v>
+        <v>148214.9687477331</v>
       </c>
       <c r="D6" t="n">
-        <v>148214.9687477327</v>
+        <v>148214.9687477331</v>
       </c>
       <c r="E6" t="n">
-        <v>-97104.49487485219</v>
+        <v>-97139.23280028788</v>
       </c>
       <c r="F6" t="n">
-        <v>228307.9669325027</v>
+        <v>228273.2290070672</v>
       </c>
       <c r="G6" t="n">
-        <v>228307.9669325033</v>
+        <v>228273.2290070673</v>
       </c>
       <c r="H6" t="n">
-        <v>228307.9669325032</v>
+        <v>228273.2290070671</v>
       </c>
       <c r="I6" t="n">
-        <v>228307.9669325023</v>
+        <v>228273.2290070674</v>
       </c>
       <c r="J6" t="n">
-        <v>10776.76453522532</v>
+        <v>10742.02660978962</v>
       </c>
       <c r="K6" t="n">
-        <v>228307.9669325032</v>
+        <v>228273.2290070674</v>
       </c>
       <c r="L6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070673</v>
       </c>
       <c r="M6" t="n">
-        <v>143252.938996991</v>
+        <v>143218.2010715554</v>
       </c>
       <c r="N6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070673</v>
       </c>
       <c r="O6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070674</v>
       </c>
       <c r="P6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070675</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.04292639334162</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.4291018851833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.85778156328855</v>
       </c>
       <c r="E4" t="n">
-        <v>87.88409682710902</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.7874568955214</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>94.75894269316061</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>114.5784970340432</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.39000556970282</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174452</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>298.6769128327786</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>140.0031368437517</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>172.0827820156116</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-3.245785922504564e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28734,10 +28734,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28767,13 +28767,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.243605200427517e-11</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.250007360933183e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29733,10 +29733,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-6.391084069730919e-14</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.186646183614044e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>288.8958573929172</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>196.3041720118996</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>272.9327299394425</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>361.1081696176594</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,7 +33050,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33108,31 +33108,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>186.687876351569</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33345,31 +33345,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
         <v>0.1345549672467222</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669186</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>216.8572963387053</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071789</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33582,31 +33582,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
         <v>0.1345549672467222</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>604.7968300725054</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33819,31 +33819,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
         <v>0.1345549672467222</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>639.4703354763084</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34056,31 +34056,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467222</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669186</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413618</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34293,31 +34293,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
         <v>0.1345549672467222</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663251</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>441.02926936555</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5541453095838</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>57.74979223202545</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998865</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243133</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>130.3364854949981</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>222.5537898377852</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>44.09163190712459</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191315</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924692</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>90.01966967203866</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238456</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>462.200585628061</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>508.1286233929751</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924692</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580284</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396388</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>302.4748895856758</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
